--- a/data/output/FV2404_FV2310/UTILMD/55140.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55140.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6987" uniqueCount="521">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7008" uniqueCount="521">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1770,6 +1770,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U322" totalsRowShown="0">
+  <autoFilter ref="A1:U322"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2059,7 +2089,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U322"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -17108,5 +17141,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55140.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55140.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8525" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8425" uniqueCount="835">
   <si>
     <t>#</t>
   </si>
@@ -8005,46 +8005,44 @@
       <c r="V96" s="9"/>
     </row>
     <row r="97" spans="1:22">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2" t="s">
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="K97" s="2" t="s">
+      <c r="K97" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="L97" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="M97" s="2" t="s">
+      <c r="L97" s="7"/>
+      <c r="M97" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N97" s="2" t="s">
+      <c r="N97" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="2"/>
-      <c r="S97" s="2"/>
-      <c r="T97" s="2"/>
-      <c r="U97" s="2" t="s">
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="V97" s="2" t="s">
+      <c r="V97" s="5" t="s">
         <v>406</v>
       </c>
     </row>
@@ -8315,44 +8313,42 @@
       </c>
     </row>
     <row r="103" spans="1:22">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2" t="s">
+      <c r="C103" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="K103" s="2"/>
-      <c r="L103" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="M103" s="2" t="s">
+      <c r="K103" s="5"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N103" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O103" s="2"/>
-      <c r="P103" s="2"/>
-      <c r="Q103" s="2"/>
-      <c r="R103" s="2"/>
-      <c r="S103" s="2"/>
-      <c r="T103" s="2"/>
-      <c r="U103" s="2" t="s">
+      <c r="N103" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="V103" s="2"/>
+      <c r="V103" s="5"/>
     </row>
     <row r="104" spans="1:22">
       <c r="A104" s="2" t="s">
@@ -8544,9 +8540,7 @@
         <v>351</v>
       </c>
       <c r="K107" s="2"/>
-      <c r="L107" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L107" s="7"/>
       <c r="M107" s="2" t="s">
         <v>46</v>
       </c>
@@ -8573,46 +8567,44 @@
       <c r="V107" s="2"/>
     </row>
     <row r="108" spans="1:22">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2" t="s">
+      <c r="C108" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="K108" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="L108" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="M108" s="2" t="s">
+      <c r="L108" s="7"/>
+      <c r="M108" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N108" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
-      <c r="Q108" s="2"/>
-      <c r="R108" s="2"/>
-      <c r="S108" s="2"/>
-      <c r="T108" s="2"/>
-      <c r="U108" s="2" t="s">
+      <c r="N108" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O108" s="5"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5"/>
+      <c r="S108" s="5"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="V108" s="2" t="s">
+      <c r="V108" s="5" t="s">
         <v>407</v>
       </c>
     </row>
@@ -9284,9 +9276,7 @@
         <v>351</v>
       </c>
       <c r="K121" s="2"/>
-      <c r="L121" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L121" s="7"/>
       <c r="M121" s="2" t="s">
         <v>43</v>
       </c>
@@ -9441,46 +9431,44 @@
       <c r="V124" s="9"/>
     </row>
     <row r="125" spans="1:22">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2" t="s">
+      <c r="C125" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="K125" s="2" t="s">
+      <c r="K125" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="L125" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="M125" s="2" t="s">
+      <c r="L125" s="7"/>
+      <c r="M125" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N125" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O125" s="2"/>
-      <c r="P125" s="2"/>
-      <c r="Q125" s="2"/>
-      <c r="R125" s="2"/>
-      <c r="S125" s="2"/>
-      <c r="T125" s="2"/>
-      <c r="U125" s="2" t="s">
+      <c r="N125" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O125" s="5"/>
+      <c r="P125" s="5"/>
+      <c r="Q125" s="5"/>
+      <c r="R125" s="5"/>
+      <c r="S125" s="5"/>
+      <c r="T125" s="5"/>
+      <c r="U125" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="V125" s="2" t="s">
+      <c r="V125" s="5" t="s">
         <v>407</v>
       </c>
     </row>
@@ -9720,9 +9708,7 @@
         <v>351</v>
       </c>
       <c r="K130" s="2"/>
-      <c r="L130" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L130" s="7"/>
       <c r="M130" s="2" t="s">
         <v>49</v>
       </c>
@@ -9776,9 +9762,7 @@
         <v>351</v>
       </c>
       <c r="K131" s="2"/>
-      <c r="L131" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L131" s="7"/>
       <c r="M131" s="2" t="s">
         <v>49</v>
       </c>
@@ -9832,9 +9816,7 @@
         <v>351</v>
       </c>
       <c r="K132" s="2"/>
-      <c r="L132" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L132" s="7"/>
       <c r="M132" s="2" t="s">
         <v>49</v>
       </c>
@@ -9861,44 +9843,42 @@
       <c r="V132" s="2"/>
     </row>
     <row r="133" spans="1:22">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2" t="s">
+      <c r="C133" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="K133" s="2"/>
-      <c r="L133" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="M133" s="2" t="s">
+      <c r="K133" s="5"/>
+      <c r="L133" s="7"/>
+      <c r="M133" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N133" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O133" s="2"/>
-      <c r="P133" s="2"/>
-      <c r="Q133" s="2"/>
-      <c r="R133" s="2"/>
-      <c r="S133" s="2"/>
-      <c r="T133" s="2"/>
-      <c r="U133" s="2" t="s">
+      <c r="N133" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O133" s="5"/>
+      <c r="P133" s="5"/>
+      <c r="Q133" s="5"/>
+      <c r="R133" s="5"/>
+      <c r="S133" s="5"/>
+      <c r="T133" s="5"/>
+      <c r="U133" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="V133" s="2"/>
+      <c r="V133" s="5"/>
     </row>
     <row r="134" spans="1:22">
       <c r="A134" s="2" t="s">
@@ -10136,9 +10116,7 @@
         <v>351</v>
       </c>
       <c r="K138" s="2"/>
-      <c r="L138" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L138" s="7"/>
       <c r="M138" s="2" t="s">
         <v>50</v>
       </c>
@@ -10165,44 +10143,42 @@
       <c r="V138" s="2"/>
     </row>
     <row r="139" spans="1:22">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2" t="s">
+      <c r="C139" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="K139" s="2"/>
-      <c r="L139" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="M139" s="2" t="s">
+      <c r="K139" s="5"/>
+      <c r="L139" s="7"/>
+      <c r="M139" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N139" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O139" s="2"/>
-      <c r="P139" s="2"/>
-      <c r="Q139" s="2"/>
-      <c r="R139" s="2"/>
-      <c r="S139" s="2"/>
-      <c r="T139" s="2"/>
-      <c r="U139" s="2" t="s">
+      <c r="N139" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O139" s="5"/>
+      <c r="P139" s="5"/>
+      <c r="Q139" s="5"/>
+      <c r="R139" s="5"/>
+      <c r="S139" s="5"/>
+      <c r="T139" s="5"/>
+      <c r="U139" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="V139" s="2"/>
+      <c r="V139" s="5"/>
     </row>
     <row r="140" spans="1:22">
       <c r="A140" s="2" t="s">
@@ -10336,9 +10312,7 @@
         <v>354</v>
       </c>
       <c r="K142" s="2"/>
-      <c r="L142" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L142" s="7"/>
       <c r="M142" s="2" t="s">
         <v>51</v>
       </c>
@@ -10500,9 +10474,7 @@
         <v>354</v>
       </c>
       <c r="K145" s="2"/>
-      <c r="L145" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L145" s="7"/>
       <c r="M145" s="2" t="s">
         <v>51</v>
       </c>
@@ -10556,9 +10528,7 @@
         <v>354</v>
       </c>
       <c r="K146" s="2"/>
-      <c r="L146" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L146" s="7"/>
       <c r="M146" s="2" t="s">
         <v>51</v>
       </c>
@@ -11595,46 +11565,44 @@
       <c r="V168" s="2"/>
     </row>
     <row r="169" spans="1:22">
-      <c r="A169" s="2" t="s">
+      <c r="A169" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
-      <c r="I169" s="2"/>
-      <c r="J169" s="2" t="s">
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="K169" s="2" t="s">
+      <c r="K169" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="L169" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="M169" s="2" t="s">
+      <c r="L169" s="7"/>
+      <c r="M169" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N169" s="2" t="s">
+      <c r="N169" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="O169" s="2"/>
-      <c r="P169" s="2"/>
-      <c r="Q169" s="2"/>
-      <c r="R169" s="2"/>
-      <c r="S169" s="2"/>
-      <c r="T169" s="2"/>
-      <c r="U169" s="2" t="s">
+      <c r="O169" s="5"/>
+      <c r="P169" s="5"/>
+      <c r="Q169" s="5"/>
+      <c r="R169" s="5"/>
+      <c r="S169" s="5"/>
+      <c r="T169" s="5"/>
+      <c r="U169" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="V169" s="2" t="s">
+      <c r="V169" s="5" t="s">
         <v>412</v>
       </c>
     </row>
@@ -12913,46 +12881,44 @@
       <c r="V194" s="2"/>
     </row>
     <row r="195" spans="1:22">
-      <c r="A195" s="2" t="s">
+      <c r="A195" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-      <c r="F195" s="2"/>
-      <c r="G195" s="2"/>
-      <c r="H195" s="2"/>
-      <c r="I195" s="2"/>
-      <c r="J195" s="2" t="s">
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="K195" s="2" t="s">
+      <c r="K195" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="L195" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="M195" s="2" t="s">
+      <c r="L195" s="7"/>
+      <c r="M195" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N195" s="2" t="s">
+      <c r="N195" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O195" s="2"/>
-      <c r="P195" s="2"/>
-      <c r="Q195" s="2"/>
-      <c r="R195" s="2"/>
-      <c r="S195" s="2"/>
-      <c r="T195" s="2"/>
-      <c r="U195" s="2" t="s">
+      <c r="O195" s="5"/>
+      <c r="P195" s="5"/>
+      <c r="Q195" s="5"/>
+      <c r="R195" s="5"/>
+      <c r="S195" s="5"/>
+      <c r="T195" s="5"/>
+      <c r="U195" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="V195" s="2" t="s">
+      <c r="V195" s="5" t="s">
         <v>418</v>
       </c>
     </row>
@@ -13173,46 +13139,44 @@
       <c r="V199" s="2"/>
     </row>
     <row r="200" spans="1:22">
-      <c r="A200" s="2" t="s">
+      <c r="A200" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
-      <c r="G200" s="2"/>
-      <c r="H200" s="2"/>
-      <c r="I200" s="2"/>
-      <c r="J200" s="2" t="s">
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="5"/>
+      <c r="I200" s="5"/>
+      <c r="J200" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="K200" s="2" t="s">
+      <c r="K200" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="L200" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="M200" s="2" t="s">
+      <c r="L200" s="7"/>
+      <c r="M200" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N200" s="2" t="s">
+      <c r="N200" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O200" s="2"/>
-      <c r="P200" s="2"/>
-      <c r="Q200" s="2"/>
-      <c r="R200" s="2"/>
-      <c r="S200" s="2"/>
-      <c r="T200" s="2"/>
-      <c r="U200" s="2" t="s">
+      <c r="O200" s="5"/>
+      <c r="P200" s="5"/>
+      <c r="Q200" s="5"/>
+      <c r="R200" s="5"/>
+      <c r="S200" s="5"/>
+      <c r="T200" s="5"/>
+      <c r="U200" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="V200" s="2" t="s">
+      <c r="V200" s="5" t="s">
         <v>419</v>
       </c>
     </row>
@@ -13433,44 +13397,42 @@
       <c r="V204" s="2"/>
     </row>
     <row r="205" spans="1:22">
-      <c r="A205" s="2" t="s">
+      <c r="A205" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
-      <c r="I205" s="2"/>
-      <c r="J205" s="2" t="s">
+      <c r="C205" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+      <c r="J205" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="K205" s="2"/>
-      <c r="L205" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="M205" s="2" t="s">
+      <c r="K205" s="5"/>
+      <c r="L205" s="7"/>
+      <c r="M205" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N205" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O205" s="2"/>
-      <c r="P205" s="2"/>
-      <c r="Q205" s="2"/>
-      <c r="R205" s="2"/>
-      <c r="S205" s="2"/>
-      <c r="T205" s="2"/>
-      <c r="U205" s="2" t="s">
+      <c r="N205" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O205" s="5"/>
+      <c r="P205" s="5"/>
+      <c r="Q205" s="5"/>
+      <c r="R205" s="5"/>
+      <c r="S205" s="5"/>
+      <c r="T205" s="5"/>
+      <c r="U205" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="V205" s="2"/>
+      <c r="V205" s="5"/>
     </row>
     <row r="206" spans="1:22">
       <c r="A206" s="2" t="s">
@@ -13604,9 +13566,7 @@
         <v>351</v>
       </c>
       <c r="K208" s="2"/>
-      <c r="L208" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L208" s="7"/>
       <c r="M208" s="2" t="s">
         <v>65</v>
       </c>
@@ -13660,9 +13620,7 @@
         <v>351</v>
       </c>
       <c r="K209" s="2"/>
-      <c r="L209" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L209" s="7"/>
       <c r="M209" s="2" t="s">
         <v>65</v>
       </c>
@@ -13824,9 +13782,7 @@
         <v>354</v>
       </c>
       <c r="K212" s="2"/>
-      <c r="L212" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L212" s="7"/>
       <c r="M212" s="2" t="s">
         <v>66</v>
       </c>
@@ -13880,9 +13836,7 @@
         <v>354</v>
       </c>
       <c r="K213" s="2"/>
-      <c r="L213" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L213" s="7"/>
       <c r="M213" s="2" t="s">
         <v>66</v>
       </c>
@@ -13936,9 +13890,7 @@
         <v>354</v>
       </c>
       <c r="K214" s="2"/>
-      <c r="L214" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L214" s="7"/>
       <c r="M214" s="2" t="s">
         <v>66</v>
       </c>
@@ -14100,9 +14052,7 @@
         <v>351</v>
       </c>
       <c r="K217" s="2"/>
-      <c r="L217" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L217" s="7"/>
       <c r="M217" s="2" t="s">
         <v>67</v>
       </c>
@@ -14156,9 +14106,7 @@
         <v>351</v>
       </c>
       <c r="K218" s="2"/>
-      <c r="L218" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L218" s="7"/>
       <c r="M218" s="2" t="s">
         <v>67</v>
       </c>
@@ -14320,9 +14268,7 @@
         <v>351</v>
       </c>
       <c r="K221" s="2"/>
-      <c r="L221" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L221" s="7"/>
       <c r="M221" s="2" t="s">
         <v>68</v>
       </c>
@@ -14376,9 +14322,7 @@
         <v>351</v>
       </c>
       <c r="K222" s="2"/>
-      <c r="L222" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L222" s="7"/>
       <c r="M222" s="2" t="s">
         <v>68</v>
       </c>
@@ -14540,9 +14484,7 @@
         <v>351</v>
       </c>
       <c r="K225" s="2"/>
-      <c r="L225" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L225" s="7"/>
       <c r="M225" s="2" t="s">
         <v>69</v>
       </c>
@@ -14596,9 +14538,7 @@
         <v>351</v>
       </c>
       <c r="K226" s="2"/>
-      <c r="L226" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L226" s="7"/>
       <c r="M226" s="2" t="s">
         <v>69</v>
       </c>
@@ -14652,9 +14592,7 @@
         <v>351</v>
       </c>
       <c r="K227" s="2"/>
-      <c r="L227" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L227" s="7"/>
       <c r="M227" s="2" t="s">
         <v>69</v>
       </c>
@@ -14708,9 +14646,7 @@
         <v>351</v>
       </c>
       <c r="K228" s="2"/>
-      <c r="L228" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L228" s="7"/>
       <c r="M228" s="2" t="s">
         <v>69</v>
       </c>
@@ -14872,9 +14808,7 @@
         <v>351</v>
       </c>
       <c r="K231" s="2"/>
-      <c r="L231" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L231" s="7"/>
       <c r="M231" s="2" t="s">
         <v>70</v>
       </c>
@@ -14928,9 +14862,7 @@
         <v>351</v>
       </c>
       <c r="K232" s="2"/>
-      <c r="L232" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L232" s="7"/>
       <c r="M232" s="2" t="s">
         <v>70</v>
       </c>
@@ -14984,9 +14916,7 @@
         <v>351</v>
       </c>
       <c r="K233" s="2"/>
-      <c r="L233" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L233" s="7"/>
       <c r="M233" s="2" t="s">
         <v>70</v>
       </c>
@@ -15148,9 +15078,7 @@
         <v>351</v>
       </c>
       <c r="K236" s="2"/>
-      <c r="L236" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L236" s="7"/>
       <c r="M236" s="2" t="s">
         <v>71</v>
       </c>
@@ -15456,9 +15384,7 @@
         <v>351</v>
       </c>
       <c r="K242" s="2"/>
-      <c r="L242" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L242" s="7"/>
       <c r="M242" s="2" t="s">
         <v>72</v>
       </c>
@@ -15485,46 +15411,44 @@
       <c r="V242" s="2"/>
     </row>
     <row r="243" spans="1:22">
-      <c r="A243" s="2" t="s">
+      <c r="A243" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C243" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D243" s="2"/>
-      <c r="E243" s="2"/>
-      <c r="F243" s="2"/>
-      <c r="G243" s="2"/>
-      <c r="H243" s="2"/>
-      <c r="I243" s="2"/>
-      <c r="J243" s="2" t="s">
+      <c r="D243" s="5"/>
+      <c r="E243" s="5"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="5"/>
+      <c r="H243" s="5"/>
+      <c r="I243" s="5"/>
+      <c r="J243" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="K243" s="2" t="s">
+      <c r="K243" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="L243" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="M243" s="2" t="s">
+      <c r="L243" s="7"/>
+      <c r="M243" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="N243" s="2" t="s">
+      <c r="N243" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="O243" s="2"/>
-      <c r="P243" s="2"/>
-      <c r="Q243" s="2"/>
-      <c r="R243" s="2"/>
-      <c r="S243" s="2"/>
-      <c r="T243" s="2"/>
-      <c r="U243" s="2" t="s">
+      <c r="O243" s="5"/>
+      <c r="P243" s="5"/>
+      <c r="Q243" s="5"/>
+      <c r="R243" s="5"/>
+      <c r="S243" s="5"/>
+      <c r="T243" s="5"/>
+      <c r="U243" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="V243" s="2" t="s">
+      <c r="V243" s="5" t="s">
         <v>425</v>
       </c>
     </row>
@@ -15795,44 +15719,42 @@
       </c>
     </row>
     <row r="249" spans="1:22">
-      <c r="A249" s="2" t="s">
+      <c r="A249" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B249" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D249" s="2"/>
-      <c r="E249" s="2"/>
-      <c r="F249" s="2"/>
-      <c r="G249" s="2"/>
-      <c r="H249" s="2"/>
-      <c r="I249" s="2"/>
-      <c r="J249" s="2" t="s">
+      <c r="C249" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D249" s="5"/>
+      <c r="E249" s="5"/>
+      <c r="F249" s="5"/>
+      <c r="G249" s="5"/>
+      <c r="H249" s="5"/>
+      <c r="I249" s="5"/>
+      <c r="J249" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="K249" s="2"/>
-      <c r="L249" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="M249" s="2" t="s">
+      <c r="K249" s="5"/>
+      <c r="L249" s="7"/>
+      <c r="M249" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N249" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O249" s="2"/>
-      <c r="P249" s="2"/>
-      <c r="Q249" s="2"/>
-      <c r="R249" s="2"/>
-      <c r="S249" s="2"/>
-      <c r="T249" s="2"/>
-      <c r="U249" s="2" t="s">
+      <c r="N249" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O249" s="5"/>
+      <c r="P249" s="5"/>
+      <c r="Q249" s="5"/>
+      <c r="R249" s="5"/>
+      <c r="S249" s="5"/>
+      <c r="T249" s="5"/>
+      <c r="U249" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="V249" s="2"/>
+      <c r="V249" s="5"/>
     </row>
     <row r="250" spans="1:22">
       <c r="A250" s="2" t="s">
@@ -16225,46 +16147,44 @@
       <c r="V257" s="9"/>
     </row>
     <row r="258" spans="1:22">
-      <c r="A258" s="2" t="s">
+      <c r="A258" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C258" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D258" s="2"/>
-      <c r="E258" s="2"/>
-      <c r="F258" s="2"/>
-      <c r="G258" s="2"/>
-      <c r="H258" s="2"/>
-      <c r="I258" s="2"/>
-      <c r="J258" s="2" t="s">
+      <c r="D258" s="5"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="5"/>
+      <c r="I258" s="5"/>
+      <c r="J258" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="K258" s="2" t="s">
+      <c r="K258" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="L258" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="M258" s="2" t="s">
+      <c r="L258" s="7"/>
+      <c r="M258" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N258" s="2" t="s">
+      <c r="N258" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="O258" s="2"/>
-      <c r="P258" s="2"/>
-      <c r="Q258" s="2"/>
-      <c r="R258" s="2"/>
-      <c r="S258" s="2"/>
-      <c r="T258" s="2"/>
-      <c r="U258" s="2" t="s">
+      <c r="O258" s="5"/>
+      <c r="P258" s="5"/>
+      <c r="Q258" s="5"/>
+      <c r="R258" s="5"/>
+      <c r="S258" s="5"/>
+      <c r="T258" s="5"/>
+      <c r="U258" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="V258" s="2" t="s">
+      <c r="V258" s="5" t="s">
         <v>426</v>
       </c>
     </row>
@@ -16535,46 +16455,44 @@
       </c>
     </row>
     <row r="264" spans="1:22">
-      <c r="A264" s="2" t="s">
+      <c r="A264" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B264" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
-      <c r="F264" s="2"/>
-      <c r="G264" s="2"/>
-      <c r="H264" s="2"/>
-      <c r="I264" s="2"/>
-      <c r="J264" s="2" t="s">
+      <c r="C264" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D264" s="5"/>
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
+      <c r="G264" s="5"/>
+      <c r="H264" s="5"/>
+      <c r="I264" s="5"/>
+      <c r="J264" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="K264" s="2" t="s">
+      <c r="K264" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="L264" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="M264" s="2" t="s">
+      <c r="L264" s="7"/>
+      <c r="M264" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N264" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O264" s="2"/>
-      <c r="P264" s="2"/>
-      <c r="Q264" s="2"/>
-      <c r="R264" s="2"/>
-      <c r="S264" s="2"/>
-      <c r="T264" s="2"/>
-      <c r="U264" s="2" t="s">
+      <c r="N264" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O264" s="5"/>
+      <c r="P264" s="5"/>
+      <c r="Q264" s="5"/>
+      <c r="R264" s="5"/>
+      <c r="S264" s="5"/>
+      <c r="T264" s="5"/>
+      <c r="U264" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="V264" s="2" t="s">
+      <c r="V264" s="5" t="s">
         <v>407</v>
       </c>
     </row>
@@ -16926,9 +16844,7 @@
         <v>351</v>
       </c>
       <c r="K271" s="2"/>
-      <c r="L271" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L271" s="7"/>
       <c r="M271" s="2" t="s">
         <v>43</v>
       </c>
@@ -17241,46 +17157,44 @@
       <c r="V277" s="2"/>
     </row>
     <row r="278" spans="1:22">
-      <c r="A278" s="2" t="s">
+      <c r="A278" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="B278" s="2" t="s">
+      <c r="B278" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C278" s="2" t="s">
+      <c r="C278" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D278" s="2"/>
-      <c r="E278" s="2"/>
-      <c r="F278" s="2"/>
-      <c r="G278" s="2"/>
-      <c r="H278" s="2"/>
-      <c r="I278" s="2"/>
-      <c r="J278" s="2" t="s">
+      <c r="D278" s="5"/>
+      <c r="E278" s="5"/>
+      <c r="F278" s="5"/>
+      <c r="G278" s="5"/>
+      <c r="H278" s="5"/>
+      <c r="I278" s="5"/>
+      <c r="J278" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="K278" s="2" t="s">
+      <c r="K278" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="L278" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="M278" s="2" t="s">
+      <c r="L278" s="7"/>
+      <c r="M278" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N278" s="2" t="s">
+      <c r="N278" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O278" s="2"/>
-      <c r="P278" s="2"/>
-      <c r="Q278" s="2"/>
-      <c r="R278" s="2"/>
-      <c r="S278" s="2"/>
-      <c r="T278" s="2"/>
-      <c r="U278" s="2" t="s">
+      <c r="O278" s="5"/>
+      <c r="P278" s="5"/>
+      <c r="Q278" s="5"/>
+      <c r="R278" s="5"/>
+      <c r="S278" s="5"/>
+      <c r="T278" s="5"/>
+      <c r="U278" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="V278" s="2" t="s">
+      <c r="V278" s="5" t="s">
         <v>427</v>
       </c>
     </row>
@@ -17528,9 +17442,7 @@
         <v>351</v>
       </c>
       <c r="K283" s="2"/>
-      <c r="L283" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L283" s="7"/>
       <c r="M283" s="2" t="s">
         <v>78</v>
       </c>
@@ -17719,46 +17631,44 @@
       </c>
     </row>
     <row r="287" spans="1:22">
-      <c r="A287" s="2" t="s">
+      <c r="A287" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B287" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C287" s="2" t="s">
+      <c r="C287" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D287" s="2"/>
-      <c r="E287" s="2"/>
-      <c r="F287" s="2"/>
-      <c r="G287" s="2"/>
-      <c r="H287" s="2"/>
-      <c r="I287" s="2"/>
-      <c r="J287" s="2" t="s">
+      <c r="D287" s="5"/>
+      <c r="E287" s="5"/>
+      <c r="F287" s="5"/>
+      <c r="G287" s="5"/>
+      <c r="H287" s="5"/>
+      <c r="I287" s="5"/>
+      <c r="J287" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="K287" s="2" t="s">
+      <c r="K287" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="L287" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="M287" s="2" t="s">
+      <c r="L287" s="7"/>
+      <c r="M287" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N287" s="2" t="s">
+      <c r="N287" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O287" s="2"/>
-      <c r="P287" s="2"/>
-      <c r="Q287" s="2"/>
-      <c r="R287" s="2"/>
-      <c r="S287" s="2"/>
-      <c r="T287" s="2"/>
-      <c r="U287" s="2" t="s">
+      <c r="O287" s="5"/>
+      <c r="P287" s="5"/>
+      <c r="Q287" s="5"/>
+      <c r="R287" s="5"/>
+      <c r="S287" s="5"/>
+      <c r="T287" s="5"/>
+      <c r="U287" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="V287" s="2" t="s">
+      <c r="V287" s="5" t="s">
         <v>427</v>
       </c>
     </row>
@@ -18006,9 +17916,7 @@
         <v>351</v>
       </c>
       <c r="K292" s="2"/>
-      <c r="L292" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L292" s="7"/>
       <c r="M292" s="2" t="s">
         <v>79</v>
       </c>
@@ -18417,46 +18325,44 @@
       </c>
     </row>
     <row r="300" spans="1:22">
-      <c r="A300" s="2" t="s">
+      <c r="A300" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="B300" s="2" t="s">
+      <c r="B300" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C300" s="2" t="s">
+      <c r="C300" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D300" s="2"/>
-      <c r="E300" s="2"/>
-      <c r="F300" s="2"/>
-      <c r="G300" s="2"/>
-      <c r="H300" s="2"/>
-      <c r="I300" s="2"/>
-      <c r="J300" s="2" t="s">
+      <c r="D300" s="5"/>
+      <c r="E300" s="5"/>
+      <c r="F300" s="5"/>
+      <c r="G300" s="5"/>
+      <c r="H300" s="5"/>
+      <c r="I300" s="5"/>
+      <c r="J300" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="K300" s="2" t="s">
+      <c r="K300" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="L300" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="M300" s="2" t="s">
+      <c r="L300" s="7"/>
+      <c r="M300" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="N300" s="2" t="s">
+      <c r="N300" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O300" s="2"/>
-      <c r="P300" s="2"/>
-      <c r="Q300" s="2"/>
-      <c r="R300" s="2"/>
-      <c r="S300" s="2"/>
-      <c r="T300" s="2"/>
-      <c r="U300" s="2" t="s">
+      <c r="O300" s="5"/>
+      <c r="P300" s="5"/>
+      <c r="Q300" s="5"/>
+      <c r="R300" s="5"/>
+      <c r="S300" s="5"/>
+      <c r="T300" s="5"/>
+      <c r="U300" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="V300" s="2" t="s">
+      <c r="V300" s="5" t="s">
         <v>427</v>
       </c>
     </row>
@@ -18704,9 +18610,7 @@
         <v>351</v>
       </c>
       <c r="K305" s="2"/>
-      <c r="L305" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L305" s="7"/>
       <c r="M305" s="2" t="s">
         <v>80</v>
       </c>
@@ -18953,46 +18857,44 @@
       <c r="V309" s="2"/>
     </row>
     <row r="310" spans="1:22">
-      <c r="A310" s="2" t="s">
+      <c r="A310" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="B310" s="2" t="s">
+      <c r="B310" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C310" s="2" t="s">
+      <c r="C310" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D310" s="2"/>
-      <c r="E310" s="2"/>
-      <c r="F310" s="2"/>
-      <c r="G310" s="2"/>
-      <c r="H310" s="2"/>
-      <c r="I310" s="2"/>
-      <c r="J310" s="2" t="s">
+      <c r="D310" s="5"/>
+      <c r="E310" s="5"/>
+      <c r="F310" s="5"/>
+      <c r="G310" s="5"/>
+      <c r="H310" s="5"/>
+      <c r="I310" s="5"/>
+      <c r="J310" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="K310" s="2" t="s">
+      <c r="K310" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="L310" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="M310" s="2" t="s">
+      <c r="L310" s="7"/>
+      <c r="M310" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N310" s="2" t="s">
+      <c r="N310" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O310" s="2"/>
-      <c r="P310" s="2"/>
-      <c r="Q310" s="2"/>
-      <c r="R310" s="2"/>
-      <c r="S310" s="2"/>
-      <c r="T310" s="2"/>
-      <c r="U310" s="2" t="s">
+      <c r="O310" s="5"/>
+      <c r="P310" s="5"/>
+      <c r="Q310" s="5"/>
+      <c r="R310" s="5"/>
+      <c r="S310" s="5"/>
+      <c r="T310" s="5"/>
+      <c r="U310" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="V310" s="2" t="s">
+      <c r="V310" s="5" t="s">
         <v>427</v>
       </c>
     </row>
@@ -19240,9 +19142,7 @@
         <v>351</v>
       </c>
       <c r="K315" s="2"/>
-      <c r="L315" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="L315" s="7"/>
       <c r="M315" s="2" t="s">
         <v>81</v>
       </c>
